--- a/workingTables/FB.xlsx
+++ b/workingTables/FB.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="12765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17175" windowHeight="12765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -54,6 +55,15 @@
   </si>
   <si>
     <t>Diff - Victim</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -112,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -120,6 +130,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="A1:H9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,11 +476,11 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="G2" s="3">
-        <f>C2-E2</f>
+        <f t="shared" ref="G2:H9" si="0">C2-E2</f>
         <v>-0.13469999999999999</v>
       </c>
       <c r="H2" s="3">
-        <f>D2-F2</f>
+        <f t="shared" si="0"/>
         <v>1.9599999999999979E-2</v>
       </c>
     </row>
@@ -492,11 +504,11 @@
         <v>0.15290000000000001</v>
       </c>
       <c r="G3" s="3">
-        <f>C3-E3</f>
+        <f t="shared" si="0"/>
         <v>-0.12790000000000001</v>
       </c>
       <c r="H3" s="3">
-        <f>D3-F3</f>
+        <f t="shared" si="0"/>
         <v>3.5099999999999992E-2</v>
       </c>
     </row>
@@ -520,11 +532,11 @@
         <v>0.125</v>
       </c>
       <c r="G4" s="3">
-        <f>C4-E4</f>
+        <f t="shared" si="0"/>
         <v>-0.21970000000000001</v>
       </c>
       <c r="H4" s="3">
-        <f>D4-F4</f>
+        <f t="shared" si="0"/>
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
@@ -548,11 +560,11 @@
         <v>0.1159</v>
       </c>
       <c r="G5" s="3">
-        <f>C5-E5</f>
+        <f t="shared" si="0"/>
         <v>-7.9699999999999993E-2</v>
       </c>
       <c r="H5" s="3">
-        <f>D5-F5</f>
+        <f t="shared" si="0"/>
         <v>0.15710000000000002</v>
       </c>
     </row>
@@ -576,11 +588,11 @@
         <v>0.15770000000000001</v>
       </c>
       <c r="G6" s="3">
-        <f>C6-E6</f>
+        <f t="shared" si="0"/>
         <v>-0.11089999999999997</v>
       </c>
       <c r="H6" s="3">
-        <f>D6-F6</f>
+        <f t="shared" si="0"/>
         <v>5.1299999999999985E-2</v>
       </c>
     </row>
@@ -604,11 +616,11 @@
         <v>0.18779999999999999</v>
       </c>
       <c r="G7" s="3">
-        <f>C7-E7</f>
+        <f t="shared" si="0"/>
         <v>0.11469999999999997</v>
       </c>
       <c r="H7" s="3">
-        <f>D7-F7</f>
+        <f t="shared" si="0"/>
         <v>-0.13979999999999998</v>
       </c>
     </row>
@@ -632,11 +644,11 @@
         <v>0.14330000000000001</v>
       </c>
       <c r="G8" s="3">
-        <f>C8-E8</f>
+        <f t="shared" si="0"/>
         <v>-9.619999999999998E-2</v>
       </c>
       <c r="H8" s="3">
-        <f>D8-F8</f>
+        <f t="shared" si="0"/>
         <v>0.1237</v>
       </c>
     </row>
@@ -660,11 +672,11 @@
         <v>0.1739</v>
       </c>
       <c r="G9" s="3">
-        <f>C9-E9</f>
+        <f t="shared" si="0"/>
         <v>-0.2329</v>
       </c>
       <c r="H9" s="3">
-        <f>D9-F9</f>
+        <f t="shared" si="0"/>
         <v>-0.1739</v>
       </c>
     </row>
@@ -674,4 +686,586 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:H9" si="0">C2-E2</f>
+        <v>-0.13469999999999999</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9599999999999979E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>-0.13469999999999999</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1.9599999999999979E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.12790000000000001</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5099999999999992E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>-0.12790000000000001</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3.5099999999999992E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.21970000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-0.21970000000000001</v>
+      </c>
+      <c r="L4" s="5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.1159</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.9699999999999993E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15710000000000002</v>
+      </c>
+      <c r="K5" s="5">
+        <v>-7.9699999999999993E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.15710000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.11089999999999997</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>5.1299999999999985E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>-0.11089999999999997</v>
+      </c>
+      <c r="L6" s="5">
+        <v>5.1299999999999985E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11469999999999997</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.13979999999999998</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.11469999999999997</v>
+      </c>
+      <c r="L7" s="5">
+        <v>-0.13979999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.619999999999998E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1237</v>
+      </c>
+      <c r="K8" s="5">
+        <v>-9.619999999999998E-2</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.1237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.2329</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.1739</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.2329</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>-0.1739</v>
+      </c>
+      <c r="K9" s="5">
+        <v>-0.2329</v>
+      </c>
+      <c r="L9" s="5">
+        <v>-0.1739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2021</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.33299999999999996</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.188</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.214</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.22919999999999999</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.2329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.15440000000000001</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.1159</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.15770000000000001</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.1739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>-0.13469999999999999</v>
+      </c>
+      <c r="D19" s="6">
+        <v>-0.12790000000000001</v>
+      </c>
+      <c r="E19" s="6">
+        <v>-0.21970000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>-7.9699999999999993E-2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>-0.11089999999999997</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.11469999999999997</v>
+      </c>
+      <c r="I19" s="6">
+        <v>-9.619999999999998E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>-0.2329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.9599999999999979E-2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.5099999999999992E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.15710000000000002</v>
+      </c>
+      <c r="G20" s="6">
+        <v>5.1299999999999985E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>-0.13979999999999998</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.1237</v>
+      </c>
+      <c r="J20" s="6">
+        <v>-0.1739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>